--- a/rnaSample/rnaSample_J.PLAGGENBERG_03.18.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_03.18.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F2F4E8-BE46-EC46-BE03-AE81BE1F267F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96B4B1-B51B-004C-B62D-7E40AACC05A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16880" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
   <si>
     <t>harvestDate</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>straight</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>03.18.20</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +535,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -547,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
@@ -570,13 +567,11 @@
       <c r="K2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -585,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -608,13 +603,11 @@
       <c r="K3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -623,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -646,13 +639,11 @@
       <c r="K4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -661,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -684,13 +675,11 @@
       <c r="K5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -699,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -722,13 +711,11 @@
       <c r="K6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -737,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -760,13 +747,11 @@
       <c r="K7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -775,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -798,13 +783,11 @@
       <c r="K8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -813,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -836,13 +819,11 @@
       <c r="K9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -851,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
@@ -874,13 +855,11 @@
       <c r="K10" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -889,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>12</v>
@@ -912,13 +891,11 @@
       <c r="K11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -927,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -950,13 +927,11 @@
       <c r="K12" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -965,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>12</v>
@@ -988,13 +963,11 @@
       <c r="K13" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1003,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>12</v>
@@ -1026,13 +999,11 @@
       <c r="K14" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1041,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
@@ -1064,13 +1035,11 @@
       <c r="K15" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1079,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>12</v>
@@ -1102,13 +1071,11 @@
       <c r="K16" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1117,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -1140,13 +1107,11 @@
       <c r="K17" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1155,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
@@ -1178,13 +1143,11 @@
       <c r="K18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1193,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>12</v>
@@ -1216,13 +1179,11 @@
       <c r="K19" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1231,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>12</v>
@@ -1254,13 +1215,11 @@
       <c r="K20" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1269,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>12</v>
@@ -1292,9 +1251,7 @@
       <c r="K21" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
